--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_DTBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_DTBeforeDays_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="91">
   <si>
     <t>ModuleName</t>
   </si>
@@ -234,9 +234,6 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
     <t>04-05-2024</t>
   </si>
   <si>
@@ -273,10 +270,31 @@
     <t>ET278</t>
   </si>
   <si>
-    <t>05:00:00 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tskNT_ExecuteTask_DTBeforeDays</t>
+    <t>10:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET_DTBeforeDays</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>22-07-2024</t>
+  </si>
+  <si>
+    <t>25-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>10:00:00PM</t>
+  </si>
+  <si>
+    <t>ET2725</t>
+  </si>
+  <si>
+    <t>ET2726</t>
+  </si>
+  <si>
+    <t>ET2727</t>
   </si>
 </sst>
 </file>
@@ -635,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -781,13 +799,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -822,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -831,10 +849,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -870,7 +888,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -881,20 +899,20 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>82</v>
+      <c r="AG2" t="s" s="1">
+        <v>88</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -1037,13 +1055,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1078,7 +1096,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1087,10 +1105,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1126,7 +1144,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1140,16 +1158,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -1177,6 +1195,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
@@ -1282,13 +1301,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
@@ -1323,7 +1342,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1332,10 +1351,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1371,7 +1390,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1385,19 +1404,19 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1413,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1558,13 +1577,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1599,7 +1618,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1608,10 +1627,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1647,7 +1666,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1661,16 +1680,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
